--- a/data/output/FV2504_FV2410/ORDRSP/19002.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="169">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="169">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -630,6 +630,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U64" totalsRowShown="0">
+  <autoFilter ref="A1:U64"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,7 +949,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3964,5 +3997,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDRSP/19002.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="233">
   <si>
     <t>#</t>
   </si>
@@ -2289,44 +2289,42 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V23" s="5"/>
+      <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="5" t="s">
@@ -2352,9 +2350,7 @@
         <v>151</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
         <v>27</v>
       </c>
@@ -2406,9 +2402,7 @@
         <v>152</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="5" t="s">
         <v>27</v>
       </c>
@@ -2466,9 +2460,7 @@
       <c r="K26" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="5" t="s">
         <v>27</v>
       </c>
@@ -2497,44 +2489,42 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5" t="s">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V27" s="5"/>
+      <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="5" t="s">
@@ -2560,9 +2550,7 @@
         <v>151</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
         <v>28</v>
       </c>
@@ -2614,9 +2602,7 @@
         <v>152</v>
       </c>
       <c r="K29" s="5"/>
-      <c r="L29" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="5" t="s">
         <v>28</v>
       </c>
@@ -2672,9 +2658,7 @@
         <v>152</v>
       </c>
       <c r="K30" s="5"/>
-      <c r="L30" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="5" t="s">
         <v>28</v>
       </c>
@@ -2701,44 +2685,42 @@
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M31" s="5" t="s">
+      <c r="K31" s="2"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5" t="s">
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V31" s="5"/>
+      <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="5" t="s">
@@ -2764,9 +2746,7 @@
         <v>151</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="5" t="s">
         <v>29</v>
       </c>
@@ -2816,9 +2796,7 @@
         <v>152</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="5" t="s">
         <v>29</v>
       </c>
@@ -2905,44 +2883,42 @@
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M35" s="5" t="s">
+      <c r="K35" s="2"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5" t="s">
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V35" s="5"/>
+      <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
@@ -2968,9 +2944,7 @@
         <v>151</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
         <v>30</v>
       </c>
@@ -3022,9 +2996,7 @@
         <v>152</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
         <v>30</v>
       </c>
@@ -3080,9 +3052,7 @@
         <v>152</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>30</v>
       </c>
@@ -3138,9 +3108,7 @@
         <v>152</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="5" t="s">
         <v>30</v>
       </c>
@@ -3196,9 +3164,7 @@
         <v>152</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="5" t="s">
         <v>30</v>
       </c>
@@ -3252,9 +3218,7 @@
         <v>152</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>30</v>
       </c>
@@ -3281,44 +3245,42 @@
       <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M42" s="5" t="s">
+      <c r="K42" s="2"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5" t="s">
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V42" s="5"/>
+      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="5" t="s">
@@ -3344,9 +3306,7 @@
         <v>151</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="5" t="s">
         <v>31</v>
       </c>
@@ -3398,9 +3358,7 @@
         <v>152</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="5" t="s">
         <v>31</v>
       </c>
@@ -3458,9 +3416,7 @@
       <c r="K45" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="L45" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="5" t="s">
         <v>31</v>
       </c>
@@ -3489,52 +3445,50 @@
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5" t="s">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M46" s="5" t="s">
+      <c r="K46" s="2"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N46" s="5" t="s">
+      <c r="N46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="O46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5" t="s">
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5" t="s">
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V46" s="5"/>
+      <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="5" t="s">
@@ -3624,9 +3578,7 @@
         <v>158</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="5" t="s">
         <v>32</v>
       </c>
@@ -3682,9 +3634,7 @@
         <v>158</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>32</v>
       </c>
@@ -3738,9 +3688,7 @@
         <v>158</v>
       </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L50" s="4"/>
       <c r="M50" s="5" t="s">
         <v>32</v>
       </c>
@@ -3794,9 +3742,7 @@
         <v>158</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L51" s="4"/>
       <c r="M51" s="5" t="s">
         <v>32</v>
       </c>
@@ -3850,9 +3796,7 @@
         <v>158</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="5" t="s">
         <v>32</v>
       </c>
@@ -3879,44 +3823,42 @@
       <c r="V52" s="5"/>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5" t="s">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K53" s="5"/>
-      <c r="L53" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M53" s="5" t="s">
+      <c r="K53" s="2"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="N53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5" t="s">
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V53" s="5"/>
+      <c r="V53" s="2"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
@@ -3942,9 +3884,7 @@
         <v>151</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="5" t="s">
         <v>33</v>
       </c>
@@ -3996,9 +3936,7 @@
         <v>152</v>
       </c>
       <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="5" t="s">
         <v>33</v>
       </c>
@@ -4054,9 +3992,7 @@
         <v>152</v>
       </c>
       <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L56" s="4"/>
       <c r="M56" s="5" t="s">
         <v>33</v>
       </c>
@@ -4112,9 +4048,7 @@
         <v>152</v>
       </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="5" t="s">
         <v>33</v>
       </c>
@@ -4170,9 +4104,7 @@
         <v>152</v>
       </c>
       <c r="K58" s="5"/>
-      <c r="L58" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="5" t="s">
         <v>33</v>
       </c>
@@ -4226,9 +4158,7 @@
         <v>152</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>33</v>
       </c>

--- a/data/output/FV2504_FV2410/ORDRSP/19002.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19002.xlsx
@@ -812,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -834,6 +834,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1279,7 +1282,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1643,7 +1646,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1789,7 +1792,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -1993,7 +1996,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2177,22 +2180,22 @@
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="9"/>
+      <c r="L20" s="10" t="s">
         <v>164</v>
       </c>
       <c r="M20" s="5"/>
@@ -2210,31 +2213,31 @@
       <c r="A21" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9" t="s">
+      <c r="J21" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10" t="s">
         <v>164</v>
       </c>
       <c r="M21" s="5"/>
@@ -2252,29 +2255,29 @@
       <c r="A22" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9" t="s">
+      <c r="J22" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10" t="s">
         <v>164</v>
       </c>
       <c r="M22" s="5"/>
@@ -2309,7 +2312,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2509,7 +2512,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -2705,7 +2708,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -2903,7 +2906,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3265,7 +3268,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3469,7 +3472,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -3843,7 +3846,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4185,48 +4188,48 @@
       <c r="V59" s="5"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="2"/>
       <c r="F60" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5" t="s">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="2"/>
       <c r="L60" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5" t="s">
+      <c r="N60" s="2"/>
+      <c r="O60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P60" s="5"/>
+      <c r="P60" s="2"/>
       <c r="Q60" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5" t="s">
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V60" s="5"/>
+      <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4285,48 +4288,48 @@
       <c r="V61" s="5"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="2"/>
       <c r="F62" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5" t="s">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="K62" s="2"/>
       <c r="L62" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5" t="s">
+      <c r="N62" s="2"/>
+      <c r="O62" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P62" s="5"/>
+      <c r="P62" s="2"/>
       <c r="Q62" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5" t="s">
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="V62" s="5"/>
+      <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
